--- a/secure/26P-Sophie.xlsx
+++ b/secure/26P-Sophie.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Sophie-729250</t>
+    <t>26P-Sophie-1084134</t>
   </si>
   <si>
-    <t>26P-Sophie-232740</t>
+    <t>26P-Sophie-1084921</t>
   </si>
   <si>
-    <t>26P-Sophie-1051659</t>
+    <t>26P-Sophie-117717</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fae3da6f"/>
+        <fgColor rgb="Fc560ac1"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:SV503"/>
+  <dimension ref="A1:NQ503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -643,11 +643,14 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:340" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>-0.876</v>
       </c>
       <c r="M33" s="4"/>
+      <c r="MB33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -787,11 +790,14 @@
       </c>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>-0.78</v>
       </c>
       <c r="M57" s="4"/>
+      <c r="HB57" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -2737,14 +2743,11 @@
       </c>
       <c r="M381" s="4"/>
     </row>
-    <row r="382" spans="1:516" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>0.52</v>
       </c>
       <c r="M382" s="4"/>
-      <c r="SV382" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
@@ -3070,13 +3073,13 @@
       </c>
       <c r="M436" s="4"/>
     </row>
-    <row r="437" spans="1:379" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:381" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>0.74</v>
       </c>
       <c r="M437" s="4"/>
-      <c r="NO437" t="s">
-        <v>6</v>
+      <c r="NQ437" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -3211,14 +3214,11 @@
       </c>
       <c r="M459" s="4"/>
     </row>
-    <row r="460" spans="1:375" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>0.832</v>
       </c>
       <c r="M460" s="4"/>
-      <c r="NK460" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
